--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asihp/Documents/Kuliah/Praktikum/project/Praktikum_ML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42CE84F5-C6A1-0D42-8C10-0115BAF7512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7729A753-42E7-4149-AAC7-EB8045C29666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15720" xr2:uid="{1A31EC27-BD1C-FE45-B95F-5E0DFC6449E4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Job Desc</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Back-end</t>
   </si>
   <si>
-    <t>Database design</t>
-  </si>
-  <si>
     <t>Model inference</t>
   </si>
   <si>
@@ -84,10 +81,28 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Assigned</t>
-  </si>
-  <si>
     <t>Developer</t>
+  </si>
+  <si>
+    <t>Data preparation</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Oct 12 2021</t>
+  </si>
+  <si>
+    <t>Oct 13 2021</t>
+  </si>
+  <si>
+    <t>Oct 25 2021</t>
+  </si>
+  <si>
+    <t>Oct 26 2021</t>
+  </si>
+  <si>
+    <t>Waiting</t>
   </si>
 </sst>
 </file>
@@ -451,7 +466,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,29 +480,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -495,12 +514,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -508,25 +531,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -534,38 +561,38 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -573,38 +600,38 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asihp/Documents/Kuliah/Praktikum/project/Praktikum_ML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7729A753-42E7-4149-AAC7-EB8045C29666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7AD4DB-CB80-0841-8ABB-6C7B99F1398E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15720" xr2:uid="{1A31EC27-BD1C-FE45-B95F-5E0DFC6449E4}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asihp/Documents/Kuliah/Praktikum/project/Praktikum_ML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7AD4DB-CB80-0841-8ABB-6C7B99F1398E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7637CEC1-799C-1B40-AAD8-BE8E5E7D13BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15720" xr2:uid="{1A31EC27-BD1C-FE45-B95F-5E0DFC6449E4}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
